--- a/output_cash_flow/all_schools_combined.xlsx
+++ b/output_cash_flow/all_schools_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,36 +527,36 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194089</v>
+        <v>194089000</v>
       </c>
       <c r="D2" t="n">
-        <v>220984</v>
+        <v>220984000</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-655833000</v>
+        <v>-655833</v>
       </c>
       <c r="H2" t="n">
-        <v>-466593309</v>
+        <v>466829</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>54813000</v>
+        <v>54813</v>
       </c>
       <c r="K2" t="n">
-        <v>342354000</v>
+        <v>342354</v>
       </c>
       <c r="L2" t="n">
-        <v>-120612396</v>
-      </c>
-      <c r="M2" t="n">
-        <v>232635</v>
-      </c>
+        <v>120964</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>679424</v>
+      </c>
       <c r="P2" t="n">
-        <v>78400000</v>
+        <v>78400</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>13560</v>
       </c>
       <c r="E3" t="n">
-        <v>-4315</v>
+        <v>-4826</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -597,7 +597,7 @@
         <v>17335</v>
       </c>
       <c r="M3" t="n">
-        <v>-345</v>
+        <v>-4345</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CORNELL_UNIVERSITY</t>
+          <t>CALIFORNIA_STATE_UNIVERSITY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -619,42 +619,44 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>323774</v>
+        <v>-502289</v>
       </c>
       <c r="D4" t="n">
-        <v>309720</v>
+        <v>748772</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>18218</v>
+        <v>-7022740</v>
       </c>
       <c r="H4" t="n">
-        <v>358133</v>
+        <v>1113761</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-274848</v>
+        <v>1149921</v>
       </c>
       <c r="K4" t="n">
-        <v>1269517</v>
+        <v>47245</v>
       </c>
       <c r="L4" t="n">
-        <v>46070</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>365998</v>
+      </c>
+      <c r="M4" t="n">
+        <v>640013</v>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>205582</v>
+        <v>6764422</v>
       </c>
       <c r="P4" t="n">
-        <v>-51048</v>
+        <v>38789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GANNON_UNIVERSITY</t>
+          <t>CORNELL_UNIVERSITY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -663,28 +665,42 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8395</v>
+        <v>488140</v>
       </c>
       <c r="D5" t="n">
-        <v>7401</v>
+        <v>293011</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>-238803</v>
+      </c>
+      <c r="H5" t="n">
+        <v>504143</v>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>-464863</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1269517</v>
+      </c>
+      <c r="L5" t="n">
+        <v>738394</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>894914</v>
+      </c>
+      <c r="P5" t="n">
+        <v>191248</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LEWIS_UNIVERSITY</t>
+          <t>CULINARY_INSTITUTE_OF_AMERICA_T</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -693,48 +709,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27296846</v>
+        <v>39322692</v>
       </c>
       <c r="D6" t="n">
-        <v>12280.073</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-4250119</v>
-      </c>
+        <v>10112852</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>7320786</v>
+        <v>19904473</v>
       </c>
       <c r="H6" t="n">
-        <v>18103845</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-161868</v>
-      </c>
+        <v>11579120</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-13716182</v>
-      </c>
-      <c r="K6" t="n">
-        <v>550000</v>
-      </c>
+        <v>-27266765</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2599642</v>
+        <v>5289884</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>246841</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-1475420</v>
+        <v>328207</v>
       </c>
       <c r="P6" t="n">
-        <v>-7870816</v>
+        <v>-7034085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MOLLOY_COLLEGE</t>
+          <t>GANNON_UNIVERSITY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -743,40 +751,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6573828</v>
+        <v>8395</v>
       </c>
       <c r="D7" t="n">
-        <v>8087552</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>7401</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6555</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14016100</v>
+        <v>12813</v>
       </c>
       <c r="H7" t="n">
-        <v>2932101</v>
+        <v>10112</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>15262911</v>
+        <v>-9060</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2410000</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+        <v>2131</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-2402</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1339</v>
+      </c>
       <c r="O7" t="n">
-        <v>-2120213</v>
+        <v>-792</v>
       </c>
       <c r="P7" t="n">
-        <v>27158798</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NEW_YORK_UNIVERSITY</t>
+          <t>LEWIS_UNIVERSITY</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,40 +799,46 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1608069000</v>
+        <v>23471502</v>
       </c>
       <c r="D8" t="n">
-        <v>1128846000</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>12280.064</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-4208019</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>1333220000</v>
+        <v>7320786</v>
       </c>
       <c r="H8" t="n">
-        <v>1724357000</v>
+        <v>18103845</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-202895000</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>-13716182</v>
+      </c>
+      <c r="K8" t="n">
+        <v>550000</v>
+      </c>
       <c r="L8" t="n">
-        <v>225521000</v>
+        <v>2599642</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>246841</v>
+      </c>
       <c r="O8" t="n">
-        <v>196971000</v>
+        <v>-1475420</v>
       </c>
       <c r="P8" t="n">
-        <v>1327296000</v>
+        <v>-7870816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>PRESIDENT___FELLOWS_OF_HARVARD_</t>
+          <t>MICHIGAN_STATE_UNIVERSITY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -827,42 +847,44 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2811779</v>
+        <v>342054</v>
       </c>
       <c r="D9" t="n">
-        <v>440257</v>
+        <v>238893</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-2151998</v>
+        <v>-537531</v>
       </c>
       <c r="H9" t="n">
-        <v>777016</v>
+        <v>328895</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1152481</v>
+        <v>207987</v>
       </c>
       <c r="K9" t="n">
-        <v>2287902</v>
+        <v>466397</v>
       </c>
       <c r="L9" t="n">
-        <v>1295464</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>190389</v>
+      </c>
+      <c r="M9" t="n">
+        <v>367558</v>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1371336</v>
+        <v>547395</v>
       </c>
       <c r="P9" t="n">
-        <v>371819</v>
+        <v>766454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>STEVENSON_UNIVERSITY_INC</t>
+          <t>MOLLOY_COLLEGE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -871,48 +893,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>440212</v>
+        <v>6573828</v>
       </c>
       <c r="D10" t="n">
-        <v>8079347</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3210760</v>
-      </c>
-      <c r="F10" t="n">
-        <v>341011</v>
-      </c>
+        <v>8078552</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>2761885</v>
+        <v>14016100</v>
       </c>
       <c r="H10" t="n">
-        <v>10677588</v>
+        <v>2932101</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>-11877590</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10163015</v>
-      </c>
+        <v>15262911</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2161567</v>
+        <v>2410000</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>1246407</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>9147855</v>
+        <v>-2120213</v>
       </c>
       <c r="P10" t="n">
-        <v>32150</v>
+        <v>27158798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>STEVENS_INSTITUTE_OF_TECHNOLOGY</t>
+          <t>MOUNT_ST_MARY_S_UNIVERSITY_INC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -920,25 +934,41 @@
           <t>2023‑2024</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>6951753</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7514013</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>6297553</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17662886</v>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>-14596047</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1325000</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>7533886</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-764608</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ST_LOUIS_UNIVERSITY_US</t>
+          <t>NEW_YORK_UNIVERSITY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -947,34 +977,362 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76096</v>
+        <v>1608069</v>
       </c>
       <c r="D12" t="n">
-        <v>45517</v>
+        <v>1128846</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-28308</v>
+        <v>1333220</v>
       </c>
       <c r="H12" t="n">
-        <v>48839</v>
+        <v>1724357</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-18771</v>
+        <v>-202895</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>11431</v>
+        <v>225521</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
+        <v>196971</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1327296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>OHIO_STATE_UNIVERSITY_THE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>873349</v>
+      </c>
+      <c r="D13" t="n">
+        <v>616748</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>PRESIDENT___FELLOWS_OF_HARVARD_</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2811779</v>
+      </c>
+      <c r="D14" t="n">
+        <v>440257</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>-2151998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>777016</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1152481</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2287902</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1295556.2</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>1371336</v>
+      </c>
+      <c r="P14" t="n">
+        <v>371819</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>STEVENSON_UNIVERSITY_INC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>440212</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8079347</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4220760</v>
+      </c>
+      <c r="F15" t="n">
+        <v>341011</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2761885</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10677588</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-8900915</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-11877590</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10163015</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2161567</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1246407</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9147855</v>
+      </c>
+      <c r="P15" t="n">
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>STEVENS_INSTITUTE_OF_TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>57046</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>30949</v>
+      </c>
+      <c r="H16" t="n">
+        <v>44103</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>-54402</v>
+      </c>
+      <c r="K16" t="n">
+        <v>828</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6065</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>6218</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-17235</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ST_LOUIS_UNIVERSITY_US</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>48539</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45517</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-11073</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-28308</v>
+      </c>
+      <c r="H17" t="n">
+        <v>48839</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>-18771</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>11431</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
         <v>5335</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P17" t="n">
         <v>-41744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>TEXAS_A_M_UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1206282105.94</v>
+      </c>
+      <c r="D18" t="n">
+        <v>586407632.0700001</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>-3091426326.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>920150736.05</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>277286556.04</v>
+      </c>
+      <c r="K18" t="n">
+        <v>956820491.0599999</v>
+      </c>
+      <c r="L18" t="n">
+        <v>613865951.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>157410000</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>3277592772.9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>463453002.04</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_COLORADO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>UNIVERSITY_OF_MINNESOTA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023‑2024</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>215488</v>
+      </c>
+      <c r="D20" t="n">
+        <v>258080</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>-1345762</v>
+      </c>
+      <c r="H20" t="n">
+        <v>216236</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>167725</v>
+      </c>
+      <c r="K20" t="n">
+        <v>250552</v>
+      </c>
+      <c r="L20" t="n">
+        <v>627260</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-21785</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>-60232</v>
       </c>
     </row>
   </sheetData>

--- a/output_cash_flow/all_schools_combined.xlsx
+++ b/output_cash_flow/all_schools_combined.xlsx
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194089000</v>
+        <v>194089</v>
       </c>
       <c r="D2" t="n">
-        <v>220984000</v>
+        <v>231719</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -553,7 +553,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>679424</v>
+        <v>993192</v>
       </c>
       <c r="P2" t="n">
         <v>78400</v>
@@ -577,7 +577,7 @@
         <v>13560</v>
       </c>
       <c r="E3" t="n">
-        <v>-4826</v>
+        <v>-4816</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -594,10 +594,10 @@
         <v>16990</v>
       </c>
       <c r="L3" t="n">
-        <v>17335</v>
+        <v>21040</v>
       </c>
       <c r="M3" t="n">
-        <v>-4345</v>
+        <v>-4138</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
@@ -618,9 +618,7 @@
           <t>2023‑2024</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>-502289</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>748772</v>
       </c>
@@ -642,12 +640,10 @@
       <c r="L4" t="n">
         <v>365998</v>
       </c>
-      <c r="M4" t="n">
-        <v>640013</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>6764422</v>
+        <v>5910608</v>
       </c>
       <c r="P4" t="n">
         <v>38789</v>
@@ -668,7 +664,7 @@
         <v>488140</v>
       </c>
       <c r="D5" t="n">
-        <v>293011</v>
+        <v>309295</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -774,9 +770,7 @@
       <c r="L7" t="n">
         <v>2131</v>
       </c>
-      <c r="M7" t="n">
-        <v>-2402</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>1339</v>
       </c>
@@ -802,10 +796,10 @@
         <v>23471502</v>
       </c>
       <c r="D8" t="n">
-        <v>12280.064</v>
+        <v>12280.073</v>
       </c>
       <c r="E8" t="n">
-        <v>-4208019</v>
+        <v>-4260139</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
@@ -826,7 +820,7 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>246841</v>
+        <v>574222</v>
       </c>
       <c r="O8" t="n">
         <v>-1475420</v>
@@ -865,14 +859,12 @@
         <v>207987</v>
       </c>
       <c r="K9" t="n">
-        <v>466397</v>
+        <v>430563</v>
       </c>
       <c r="L9" t="n">
-        <v>190389</v>
-      </c>
-      <c r="M9" t="n">
-        <v>367558</v>
-      </c>
+        <v>119580</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
         <v>547395</v>
@@ -893,7 +885,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6573828</v>
+        <v>6574</v>
       </c>
       <c r="D10" t="n">
         <v>8078552</v>
@@ -938,9 +930,11 @@
         <v>6951753</v>
       </c>
       <c r="D11" t="n">
-        <v>7514013</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>8321674</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7104928</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>6297553</v>
@@ -1019,10 +1013,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>873349</v>
+        <v>873349000</v>
       </c>
       <c r="D13" t="n">
-        <v>616748</v>
+        <v>616748000</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1054,7 +1048,9 @@
       <c r="D14" t="n">
         <v>440257</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>141477</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>-2151998</v>
@@ -1070,10 +1066,14 @@
         <v>2287902</v>
       </c>
       <c r="L14" t="n">
-        <v>1295556.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+        <v>1539964</v>
+      </c>
+      <c r="M14" t="n">
+        <v>919346</v>
+      </c>
+      <c r="N14" t="n">
+        <v>38700</v>
+      </c>
       <c r="O14" t="n">
         <v>1371336</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>8079347</v>
       </c>
       <c r="E15" t="n">
-        <v>4220760</v>
+        <v>4270760</v>
       </c>
       <c r="F15" t="n">
         <v>341011</v>
@@ -1193,9 +1193,7 @@
         <v>45517</v>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>-11073</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>-28308</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>5335</v>
       </c>
       <c r="P17" t="n">
-        <v>-41744</v>
+        <v>119281</v>
       </c>
     </row>
     <row r="18">
@@ -1254,9 +1252,7 @@
       <c r="L18" t="n">
         <v>613865951.75</v>
       </c>
-      <c r="M18" t="n">
-        <v>157410000</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
         <v>3277592772.9</v>
@@ -1303,7 +1299,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>215488</v>
+        <v>313341</v>
       </c>
       <c r="D20" t="n">
         <v>258080</v>
@@ -1321,16 +1317,18 @@
         <v>167725</v>
       </c>
       <c r="K20" t="n">
-        <v>250552</v>
+        <v>252190</v>
       </c>
       <c r="L20" t="n">
-        <v>627260</v>
+        <v>774320</v>
       </c>
       <c r="M20" t="n">
-        <v>-21785</v>
+        <v>1</v>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1116805</v>
+      </c>
       <c r="P20" t="n">
         <v>-60232</v>
       </c>

--- a/output_cash_flow/all_schools_combined.xlsx
+++ b/output_cash_flow/all_schools_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,20 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>cash_flows_from_noncapital_financing_activities</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>cash_flows_from_capital_and_related_financing_activities</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>net_cash_from_financing_activities</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_in_cash_and_equivalents</t>
         </is>
@@ -537,25 +547,29 @@
       <c r="G2" t="n">
         <v>-655833</v>
       </c>
-      <c r="H2" t="n">
-        <v>466829</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>54813</v>
       </c>
       <c r="K2" t="n">
-        <v>342354</v>
+        <v>584239</v>
       </c>
       <c r="L2" t="n">
-        <v>120964</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>351604</v>
+      </c>
+      <c r="M2" t="n">
+        <v>232635</v>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>993192</v>
       </c>
       <c r="P2" t="n">
+        <v>-313768</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
         <v>78400</v>
       </c>
     </row>
@@ -577,7 +591,7 @@
         <v>13560</v>
       </c>
       <c r="E3" t="n">
-        <v>-4816</v>
+        <v>-5316</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
@@ -594,16 +608,18 @@
         <v>16990</v>
       </c>
       <c r="L3" t="n">
-        <v>21040</v>
+        <v>17335</v>
       </c>
       <c r="M3" t="n">
-        <v>-4138</v>
+        <v>-4348</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
         <v>2865</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>5742</v>
       </c>
     </row>
@@ -638,14 +654,18 @@
         <v>47245</v>
       </c>
       <c r="L4" t="n">
-        <v>365998</v>
+        <v>23855</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>5910608</v>
+        <v>6764422</v>
       </c>
       <c r="P4" t="n">
+        <v>-852814</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
         <v>38789</v>
       </c>
     </row>
@@ -661,36 +681,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>488140</v>
+        <v>323774</v>
       </c>
       <c r="D5" t="n">
-        <v>309295</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>293780</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48.275</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-238803</v>
+        <v>18218</v>
       </c>
       <c r="H5" t="n">
-        <v>504143</v>
+        <v>358133</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-464863</v>
+        <v>-274848</v>
       </c>
       <c r="K5" t="n">
         <v>1269517</v>
       </c>
       <c r="L5" t="n">
-        <v>738394</v>
+        <v>46070</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>894914</v>
-      </c>
-      <c r="P5" t="n">
-        <v>191248</v>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>205582</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-51048</v>
       </c>
     </row>
     <row r="6">
@@ -728,10 +752,12 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>328207</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>-7034085</v>
       </c>
     </row>
@@ -774,10 +800,12 @@
       <c r="N7" t="n">
         <v>1339</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
         <v>-792</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>2961</v>
       </c>
     </row>
@@ -796,10 +824,10 @@
         <v>23471502</v>
       </c>
       <c r="D8" t="n">
-        <v>12280.073</v>
+        <v>12299973</v>
       </c>
       <c r="E8" t="n">
-        <v>-4260139</v>
+        <v>-4256019</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
@@ -820,12 +848,14 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>574222</v>
-      </c>
-      <c r="O8" t="n">
+        <v>246841</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
         <v>-1475420</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>-7870816</v>
       </c>
     </row>
@@ -841,36 +871,38 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>342054</v>
+        <v>342054000</v>
       </c>
       <c r="D9" t="n">
-        <v>238893</v>
+        <v>238893000</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-537531</v>
-      </c>
-      <c r="H9" t="n">
-        <v>328895</v>
-      </c>
+        <v>-537531000</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>207987</v>
+        <v>207987000</v>
       </c>
       <c r="K9" t="n">
-        <v>430563</v>
+        <v>361640</v>
       </c>
       <c r="L9" t="n">
-        <v>119580</v>
+        <v>28430</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>547395</v>
+        <v>539805000</v>
       </c>
       <c r="P9" t="n">
-        <v>766454</v>
+        <v>7590000</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>217851000</v>
       </c>
     </row>
     <row r="10">
@@ -885,7 +917,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6574</v>
+        <v>6573828</v>
       </c>
       <c r="D10" t="n">
         <v>8078552</v>
@@ -908,429 +940,13 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
         <v>-2120213</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>27158798</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>MOUNT_ST_MARY_S_UNIVERSITY_INC</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>6951753</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8321674</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7104928</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>6297553</v>
-      </c>
-      <c r="H11" t="n">
-        <v>17662886</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>-14596047</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1325000</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>7533886</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-764608</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>NEW_YORK_UNIVERSITY</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1608069</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1128846</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>1333220</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1724357</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>-202895</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>225521</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>196971</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1327296</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>OHIO_STATE_UNIVERSITY_THE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>873349000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>616748000</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>PRESIDENT___FELLOWS_OF_HARVARD_</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2811779</v>
-      </c>
-      <c r="D14" t="n">
-        <v>440257</v>
-      </c>
-      <c r="E14" t="n">
-        <v>141477</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>-2151998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>777016</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1152481</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2287902</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1539964</v>
-      </c>
-      <c r="M14" t="n">
-        <v>919346</v>
-      </c>
-      <c r="N14" t="n">
-        <v>38700</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1371336</v>
-      </c>
-      <c r="P14" t="n">
-        <v>371819</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>STEVENSON_UNIVERSITY_INC</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>440212</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8079347</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4270760</v>
-      </c>
-      <c r="F15" t="n">
-        <v>341011</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2761885</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10677588</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-8900915</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-11877590</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10163015</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2161567</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1246407</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9147855</v>
-      </c>
-      <c r="P15" t="n">
-        <v>32150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>STEVENS_INSTITUTE_OF_TECHNOLOGY</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>57046</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>30949</v>
-      </c>
-      <c r="H16" t="n">
-        <v>44103</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>-54402</v>
-      </c>
-      <c r="K16" t="n">
-        <v>828</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6065</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>6218</v>
-      </c>
-      <c r="P16" t="n">
-        <v>-17235</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>ST_LOUIS_UNIVERSITY_US</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>48539</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45517</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>-28308</v>
-      </c>
-      <c r="H17" t="n">
-        <v>48839</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>-18771</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>11431</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>5335</v>
-      </c>
-      <c r="P17" t="n">
-        <v>119281</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>TEXAS_A_M_UNIVERSITY</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1206282105.94</v>
-      </c>
-      <c r="D18" t="n">
-        <v>586407632.0700001</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>-3091426326.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>920150736.05</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>277286556.04</v>
-      </c>
-      <c r="K18" t="n">
-        <v>956820491.0599999</v>
-      </c>
-      <c r="L18" t="n">
-        <v>613865951.75</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>3277592772.9</v>
-      </c>
-      <c r="P18" t="n">
-        <v>463453002.04</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>UNIVERSITY_OF_COLORADO</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>UNIVERSITY_OF_MINNESOTA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023‑2024</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>313341</v>
-      </c>
-      <c r="D20" t="n">
-        <v>258080</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>-1345762</v>
-      </c>
-      <c r="H20" t="n">
-        <v>216236</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>167725</v>
-      </c>
-      <c r="K20" t="n">
-        <v>252190</v>
-      </c>
-      <c r="L20" t="n">
-        <v>774320</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>1116805</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-60232</v>
       </c>
     </row>
   </sheetData>
